--- a/relatorios/repasses_liberados/dentistas/09268078465/2023-08-25_relatorio_repasses_09268078465.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09268078465/2023-08-25_relatorio_repasses_09268078465.xlsx
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N96">
-        <v>1.605</v>
+        <v>2.675</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5104,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5280,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N102">
-        <v>1.605</v>
+        <v>2.675</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N108">
-        <v>1.605</v>
+        <v>2.675</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N112">
-        <v>7.96</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9284,10 +9284,10 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N193">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -11000,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N232">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11044,10 +11044,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -13816,10 +13816,10 @@
         <v>0.100402</v>
       </c>
       <c r="M296">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N296">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/09268078465/2023-08-25_relatorio_repasses_09268078465.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09268078465/2023-08-25_relatorio_repasses_09268078465.xlsx
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N14">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N17">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N18">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N23">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N36">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5236,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
-        <v>75.31</v>
+        <v>45.186</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5280,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5324,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>9.949999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5412,10 +5412,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5456,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>9.949999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>123.545</v>
+        <v>74.127</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>2.675</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5588,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>123.545</v>
+        <v>74.127</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5632,10 +5632,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
-        <v>123.545</v>
+        <v>74.127</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
-        <v>9.949999999999999</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -5852,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N118">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N120">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6116,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6248,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6556,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6820,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6908,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6996,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7084,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N189">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -9680,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -9988,10 +9988,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N209">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -10692,10 +10692,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N225">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11000,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11836,10 +11836,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N251">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N267">
         <v>0</v>
@@ -12628,10 +12628,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N269">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -13156,10 +13156,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -13816,10 +13816,10 @@
         <v>0.100402</v>
       </c>
       <c r="M296">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
-        <v>0</v>
+        <v>1.50603</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
         <v>0</v>
